--- a/python_tools/src/debug文本.xlsx
+++ b/python_tools/src/debug文本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nox\Documents\GitHub\pokeemerald-expansion-Chinese\python_tools\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C291FC3-8DB5-421D-B57C-4A3378F96408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC12F5-F9B3-4955-90BF-5BAE0408925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{2A2B2401-7C33-4CD1-B213-FCF8F16BA530}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="4806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="4831">
   <si>
     <t>Moves</t>
   </si>
@@ -14734,6 +14734,93 @@
   </si>
   <si>
     <t>冻伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatiles</t>
+  </si>
+  <si>
+    <t>Hazards</t>
+  </si>
+  <si>
+    <t>Instant Win</t>
+  </si>
+  <si>
+    <t>DefenseCurl</t>
+  </si>
+  <si>
+    <t>DestinyBond</t>
+  </si>
+  <si>
+    <t>EscapePrevention</t>
+  </si>
+  <si>
+    <t>DragonCheer</t>
+  </si>
+  <si>
+    <t>FocusEnergy</t>
+  </si>
+  <si>
+    <t>MudSport</t>
+  </si>
+  <si>
+    <t>WaterSport</t>
+  </si>
+  <si>
+    <t>Lock On</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>临时状态</t>
+  </si>
+  <si>
+    <t>场地陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法逃脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙声鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩泥巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15115,10 +15202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002EC90-9A43-47C5-AD35-5EA24DFBAC41}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20240,6 +20327,150 @@
       </c>
       <c r="E290" t="s">
         <v>4796</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>4806</v>
+      </c>
+      <c r="E291" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>4807</v>
+      </c>
+      <c r="E292" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>4808</v>
+      </c>
+      <c r="E293" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>4809</v>
+      </c>
+      <c r="E294" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>4810</v>
+      </c>
+      <c r="E295" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E296" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>4812</v>
+      </c>
+      <c r="E297" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>4813</v>
+      </c>
+      <c r="E298" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E299" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>4815</v>
+      </c>
+      <c r="E300" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E301" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>4816</v>
+      </c>
+      <c r="E302" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E303" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E304" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E305" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E306" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E307" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E308" t="s">
+        <v>4409</v>
       </c>
     </row>
   </sheetData>
